--- a/final report/precisionRate_rfr.xlsx
+++ b/final report/precisionRate_rfr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AD097423-9D16-4BA5-8518-B4216691998A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F1F81-1378-6645-AC5A-67C56F629399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_rfr" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,61 @@
     <sheet name="通訊" sheetId="5" r:id="rId5"/>
     <sheet name="統整" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -199,12 +253,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -212,7 +266,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -220,7 +274,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -229,7 +283,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -238,7 +292,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -247,7 +301,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -255,7 +309,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -263,7 +317,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -271,7 +325,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -279,7 +333,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -288,7 +342,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -297,7 +351,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -305,7 +359,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -314,7 +368,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -322,7 +376,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -331,7 +385,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -340,7 +394,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -348,14 +402,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -363,7 +417,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -841,9 +895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,53 +910,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,8 +974,1563 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Regressor</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Regressor</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F4CF080D-EDBA-1741-B33E-450E9621B86C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E0F09A5D-0C3C-3D40-8494-B0946697EE17}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{89BD0F1E-215A-E643-B991-F276CA2E9FCD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43693AE2-A7CB-9344-834E-9394CBAAF0C2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{408463F6-5FBD-8945-87F9-F7891E6F40EE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.30000000000000004"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.36</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.38</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Regressor</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Regressor</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F4CF080D-EDBA-1741-B33E-450E9621B86C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E0F09A5D-0C3C-3D40-8494-B0946697EE17}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{89BD0F1E-215A-E643-B991-F276CA2E9FCD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43693AE2-A7CB-9344-834E-9394CBAAF0C2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{408463F6-5FBD-8945-87F9-F7891E6F40EE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.30000000000000004"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A167456E-D90D-2D78-3C39-B2618CA2B746}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6711950" y="3028950"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67D7834-DEC0-EE45-95A5-468E62B3AD1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5689600" y="2032000"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1216,16 +2825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" activeCellId="4" sqref="B2:B41 C2:C41 G2:G41 H2:H41 I2:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -1391,7 +3000,7 @@
         <v>4.6195216905568097</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -1474,7 +3083,7 @@
         <v>12.588755785886001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -1557,7 +3166,7 @@
         <v>4.9848978785850502</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -1640,7 +3249,7 @@
         <v>0.95621944278332205</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -1723,7 +3332,7 @@
         <v>9.0158352245724702E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -1806,7 +3415,7 @@
         <v>4.68753009032734</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -1889,7 +3498,7 @@
         <v>2.73122768921416</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -1972,7 +3581,7 @@
         <v>0.89541961875403497</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -2055,7 +3664,7 @@
         <v>12.5340748501318</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -2138,7 +3747,7 @@
         <v>540.54923721913894</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -2221,7 +3830,7 @@
         <v>513.11138242350899</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -2304,7 +3913,7 @@
         <v>0.17313215547107999</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -2387,7 +3996,7 @@
         <v>0.119390901083598</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -2470,7 +4079,7 @@
         <v>5.8267719023634999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -2553,7 +4162,7 @@
         <v>1.3282014826095401</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -2636,7 +4245,7 @@
         <v>0.73071297580575301</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -2719,7 +4328,7 @@
         <v>1802.37077556079</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -2802,7 +4411,7 @@
         <v>1.6937503162426</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -2885,7 +4494,7 @@
         <v>0.12381155975159799</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -2968,7 +4577,7 @@
         <v>3.6980670667687598</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -3051,7 +4660,7 @@
         <v>2.4208881013794801</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -3134,7 +4743,7 @@
         <v>0.241211458425585</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -3217,7 +4826,7 @@
         <v>0.72309542487912704</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -3300,7 +4909,7 @@
         <v>11.3534760030486</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -3383,7 +4992,7 @@
         <v>0.16422075734678601</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -3466,7 +5075,7 @@
         <v>0.60926821816894305</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -3549,7 +5158,7 @@
         <v>337.05575968129</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -3632,7 +5241,7 @@
         <v>12.932480095143999</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -3715,7 +5324,7 @@
         <v>7.7307064090112503</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -3798,7 +5407,7 @@
         <v>2434.37829462528</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -3881,7 +5490,7 @@
         <v>137.257391356798</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -3964,7 +5573,7 @@
         <v>1.0074592844708401</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -4047,7 +5656,7 @@
         <v>1.9692914175438501</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -4130,7 +5739,7 @@
         <v>1.2272190773215199</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -4213,7 +5822,7 @@
         <v>1.4346467269594001</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -4296,7 +5905,7 @@
         <v>18.936270244118699</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -4379,7 +5988,7 @@
         <v>125.792357750406</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -4462,7 +6071,7 @@
         <v>5474.0547414380399</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -4545,7 +6154,7 @@
         <v>0.72460294435552597</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -4628,7 +6237,7 @@
         <v>9.1333108314811895</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -4725,7 +6334,7 @@
         <v>2.80614125740241E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -4822,7 +6431,7 @@
         <v>0.25629170058761674</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -4919,7 +6528,7 @@
         <v>13.43653830259735</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -5016,7 +6625,7 @@
         <v>651.32569122269376</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -5113,7 +6722,7 @@
         <v>51631.602416357498</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -5213,20 +6822,21 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -5324,7 +6934,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rfr!A$31</f>
         <v>2330</v>
@@ -5422,7 +7032,7 @@
         <v>19496.0411513738</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rfr!A$12</f>
         <v>2454</v>
@@ -5520,7 +7130,7 @@
         <v>51631.602416357498</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rfr!A$28</f>
         <v>3034</v>
@@ -5618,7 +7228,7 @@
         <v>33004.387112481403</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rfr!A$18</f>
         <v>2379</v>
@@ -5716,7 +7326,7 @@
         <v>10614.545031055801</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rfr!A$25</f>
         <v>2408</v>
@@ -5814,7 +7424,7 @@
         <v>0.91310098397070605</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rfr!A$4</f>
         <v>2344</v>
@@ -5912,7 +7522,7 @@
         <v>10.6387959978168</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rfr!A$37</f>
         <v>2337</v>
@@ -6010,7 +7620,7 @@
         <v>0.70171206525058905</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rfr!A$35</f>
         <v>3035</v>
@@ -6108,7 +7718,7 @@
         <v>2744.3298817242298</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rfr!A$5</f>
         <v>2449</v>
@@ -6206,7 +7816,7 @@
         <v>20.8354615384198</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rfr!A$33</f>
         <v>2468</v>
@@ -6304,7 +7914,7 @@
         <v>4.4938192066761598E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -6401,7 +8011,7 @@
         <v>4.4938192066761598E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -6498,7 +8108,7 @@
         <v>3.3445247374322298</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -6595,7 +8205,7 @@
         <v>1382.582671631325</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -6692,7 +8302,7 @@
         <v>17275.6671212943</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -6789,7 +8399,7 @@
         <v>51631.602416357498</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -6893,16 +8503,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -7000,7 +8610,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rfr!A$16</f>
         <v>1216</v>
@@ -7098,7 +8708,7 @@
         <v>0.17656082449129601</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rfr!A$36</f>
         <v>1229</v>
@@ -7196,7 +8806,7 @@
         <v>39.921422875760797</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rfr!A$17</f>
         <v>1434</v>
@@ -7294,7 +8904,7 @@
         <v>4.2880161672596701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rfr!A$30</f>
         <v>1227</v>
@@ -7392,7 +9002,7 @@
         <v>0.165365595096893</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rfr!A$2</f>
         <v>1210</v>
@@ -7490,7 +9100,7 @@
         <v>47.271162719108901</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rfr!A$10</f>
         <v>1232</v>
@@ -7588,7 +9198,7 @@
         <v>632.34200103829301</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rfr!A$9</f>
         <v>1215</v>
@@ -7686,7 +9296,7 @@
         <v>16.186227498942099</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rfr!A$3</f>
         <v>1231</v>
@@ -7784,7 +9394,7 @@
         <v>145.83654827039001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rfr!A$23</f>
         <v>1218</v>
@@ -7882,7 +9492,7 @@
         <v>14.795196904409</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rfr!A$24</f>
         <v>1702</v>
@@ -7980,7 +9590,7 @@
         <v>0.15314661995808701</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -8077,7 +9687,7 @@
         <v>4.2880161672596701E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -8174,7 +9784,7 @@
         <v>0.16816440244549374</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -8271,7 +9881,7 @@
         <v>15.490712201675549</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -8368,7 +9978,7 @@
         <v>45.433727758271871</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -8465,7 +10075,7 @@
         <v>632.34200103829301</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -8569,16 +10179,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -8676,7 +10286,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rfr!A$6</f>
         <v>2603</v>
@@ -8774,7 +10384,7 @@
         <v>5686.3245748704803</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rfr!A$20</f>
         <v>2609</v>
@@ -8872,7 +10482,7 @@
         <v>5237.1198871398701</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rfr!A$34</f>
         <v>2615</v>
@@ -8970,7 +10580,7 @@
         <v>15131.0859864799</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rfr!A$40</f>
         <v>2618</v>
@@ -9068,7 +10678,7 @@
         <v>0.217704889166045</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rfr!A$27</f>
         <v>2610</v>
@@ -9166,7 +10776,7 @@
         <v>0.89293945278645204</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rfr!A$21</f>
         <v>2637</v>
@@ -9264,7 +10874,7 @@
         <v>708.27676177589603</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rfr!A$7</f>
         <v>2633</v>
@@ -9362,7 +10972,7 @@
         <v>3.6725171752462697E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rfr!A$26</f>
         <v>2459</v>
@@ -9460,7 +11070,7 @@
         <v>86.046524888929696</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rfr!A$13</f>
         <v>2607</v>
@@ -9558,7 +11168,7 @@
         <v>12.077879700785701</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rfr!A$14</f>
         <v>2634</v>
@@ -9656,7 +11266,7 @@
         <v>8.3626128179431602E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -9753,7 +11363,7 @@
         <v>3.6725171752462697E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -9850,7 +11460,7 @@
         <v>0.38651353007114675</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -9947,7 +11557,7 @@
         <v>49.062202294857698</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -10044,7 +11654,7 @@
         <v>4104.9091057988762</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -10141,7 +11751,7 @@
         <v>15131.0859864799</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -10245,16 +11855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -10352,7 +11962,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rfr!A$32</f>
         <v>2412</v>
@@ -10450,7 +12060,7 @@
         <v>0.563917160483971</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rfr!A$41</f>
         <v>3045</v>
@@ -10548,7 +12158,7 @@
         <v>0.26915397106147398</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rfr!A$22</f>
         <v>4904</v>
@@ -10646,7 +12256,7 @@
         <v>0.106863263805724</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rfr!A$11</f>
         <v>2345</v>
@@ -10744,7 +12354,7 @@
         <v>1716.66563137907</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rfr!A$39</f>
         <v>2498</v>
@@ -10842,7 +12452,7 @@
         <v>0.90984218504971603</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rfr!A$8</f>
         <v>3596</v>
@@ -10940,7 +12550,7 @@
         <v>28.932679888541301</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rfr!A$15</f>
         <v>3682</v>
@@ -11038,7 +12648,7 @@
         <v>2.80614125740241E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rfr!A$29</f>
         <v>5388</v>
@@ -11136,7 +12746,7 @@
         <v>0.29230165355813298</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rfr!A$19</f>
         <v>2455</v>
@@ -11234,7 +12844,7 @@
         <v>38.709911601328002</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rfr!A$38</f>
         <v>2439</v>
@@ -11332,7 +12942,7 @@
         <v>2.8764610382749298</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -11429,7 +13039,7 @@
         <v>2.80614125740241E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -11526,7 +13136,7 @@
         <v>0.27494089168563873</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -11623,7 +13233,7 @@
         <v>0.73687967276684352</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -11720,7 +13330,7 @@
         <v>22.418625175974707</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -11817,7 +13427,7 @@
         <v>1716.66563137907</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -11921,428 +13531,428 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>precisionRate_rfr!B42</f>
         <v>0.32638888888888801</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>precisionRate_rfr!C42</f>
         <v>0.53289473684210498</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>precisionRate_rfr!G42</f>
         <v>0.48120300751879602</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>precisionRate_rfr!H42</f>
         <v>0.48466257668711599</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>precisionRate_rfr!E42</f>
         <v>0.50425404709345101</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>precisionRate_rfr!V42</f>
         <v>9.1017564082199708E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>半導體!$B$12</f>
         <v>0.40268456375838901</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>半導體!$B$13</f>
         <v>0.41261554262238925</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>半導體!$B$14</f>
         <v>0.45807962529273949</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>半導體!$B$15</f>
         <v>0.57707811308421375</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>半導體!$B$16</f>
         <v>0.72535211267605604</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>precisionRate_rfr!B43</f>
         <v>0.49118198874296398</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>precisionRate_rfr!C43</f>
         <v>0.65952867357361677</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>precisionRate_rfr!G43</f>
         <v>0.57496334310850372</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f>precisionRate_rfr!H43</f>
         <v>0.60232683982683954</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>precisionRate_rfr!E43</f>
         <v>0.57970831893609276</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>precisionRate_rfr!V43</f>
         <v>0.16636473177574498</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>食品!$B$12</f>
         <v>0.42537313432835799</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>食品!$B$13</f>
         <v>0.50080645161290294</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>食品!$B$14</f>
         <v>0.52380313439244253</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>食品!$B$15</f>
         <v>0.69450619244204503</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>食品!$B$16</f>
         <v>0.80136986301369795</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>precisionRate_rfr!B44</f>
         <v>0.57536604020978999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>precisionRate_rfr!C44</f>
         <v>0.70871609403254898</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>precisionRate_rfr!G44</f>
         <v>0.61507802472471751</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>precisionRate_rfr!H44</f>
         <v>0.66993464052287544</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>precisionRate_rfr!E44</f>
         <v>0.64694341530594857</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>precisionRate_rfr!V44</f>
         <v>0.30191035546478251</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>航運!$B$12</f>
         <v>0.32638888888888801</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>航運!$B$13</f>
         <v>0.49760914760914726</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>航運!$B$14</f>
         <v>0.53492063492063457</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>航運!$B$15</f>
         <v>0.642961876832844</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>航運!$B$16</f>
         <v>0.69047619047619002</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>precisionRate_rfr!B45</f>
         <v>0.68011636731596226</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>precisionRate_rfr!C45</f>
         <v>0.74674855491329473</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>precisionRate_rfr!G45</f>
         <v>0.69349641612415269</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>precisionRate_rfr!H45</f>
         <v>0.72912550691483746</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>precisionRate_rfr!E45</f>
         <v>0.70544497989372001</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>precisionRate_rfr!V45</f>
         <v>0.41332047331151578</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>通訊!$B$12</f>
         <v>0.5703125</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>通訊!$B$13</f>
         <v>0.60159266409266332</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>通訊!$B$14</f>
         <v>0.67721834496510458</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>通訊!$B$15</f>
         <v>0.70735607675906143</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>通訊!$B$16</f>
         <v>0.80838323353293395</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>precisionRate_rfr!B46</f>
         <v>0.80838323353293395</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>precisionRate_rfr!C46</f>
         <v>0.80487804878048697</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>precisionRate_rfr!G46</f>
         <v>0.75483870967741895</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>precisionRate_rfr!H46</f>
         <v>0.78985507246376796</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>precisionRate_rfr!E46</f>
         <v>0.771433230826577</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>precisionRate_rfr!V46</f>
         <v>0.54377935432991598</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>半導體!$C$12</f>
         <v>0.554838709677419</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>半導體!$C$13</f>
         <v>0.65421043924228606</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>半導體!$C$14</f>
         <v>0.69393100351717352</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>半導體!$C$15</f>
         <v>0.76575750233636752</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>半導體!$C$16</f>
         <v>0.784810126582278</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>食品!$C$12</f>
         <v>0.59285714285714197</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>食品!$C$13</f>
         <v>0.62318840579710122</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>食品!$C$14</f>
         <v>0.72399559713813899</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>食品!$C$15</f>
         <v>0.74090505767524328</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>食品!$C$16</f>
         <v>0.79245283018867896</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>航運!$C$12</f>
         <v>0.58461538461538398</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>航運!$C$13</f>
         <v>0.68167629813978969</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>航運!$C$14</f>
         <v>0.7425727317554236</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>航運!$C$15</f>
         <v>0.76400239729759156</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>航運!$C$16</f>
         <v>0.80487804878048697</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>通訊!$C$12</f>
         <v>0.53289473684210498</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>通訊!$C$13</f>
         <v>0.66332004349401896</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>通訊!$C$14</f>
         <v>0.70130247220839503</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>通訊!$C$15</f>
         <v>0.72041208791208744</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>通訊!$C$16</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -12352,125 +13962,125 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>半導體!$G$12</f>
         <v>0.48120300751879602</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>半導體!$G$13</f>
         <v>0.52281746031745979</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>半導體!$G$14</f>
         <v>0.57569892473118256</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>半導體!$G$15</f>
         <v>0.64100719424460373</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>半導體!$G$16</f>
         <v>0.75182481751824803</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>食品!$G$12</f>
         <v>0.57258064516129004</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>食品!$G$13</f>
         <v>0.58484848484848417</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>食品!$G$14</f>
         <v>0.64171840912904798</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>食品!$G$15</f>
         <v>0.69419756221432127</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>食品!$G$16</f>
         <v>0.75483870967741895</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>航運!$G$12</f>
         <v>0.49473684210526298</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>航運!$G$13</f>
         <v>0.56704215116279</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>航運!$G$14</f>
         <v>0.60824197596090301</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>航運!$G$15</f>
         <v>0.66666666666666596</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>航運!$G$16</f>
         <v>0.71186440677966101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>通訊!$G$12</f>
         <v>0.53896103896103897</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>通訊!$G$13</f>
         <v>0.6164659714009243</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>通訊!$G$14</f>
         <v>0.67535612535612499</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>通訊!$G$15</f>
         <v>0.70007522148548429</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>通訊!$G$16</f>
         <v>0.74576271186440601</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -12480,125 +14090,125 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>半導體!$H$12</f>
         <v>0.51366120218579203</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>半導體!$H$13</f>
         <v>0.54798302720297576</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>半導體!$H$14</f>
         <v>0.65119855269108951</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>半導體!$H$15</f>
         <v>0.67081939799331025</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>半導體!$H$16</f>
         <v>0.761290322580645</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>食品!$H$12</f>
         <v>0.48466257668711599</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>食品!$H$13</f>
         <v>0.61032790309106077</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>食品!$H$14</f>
         <v>0.64112644883219749</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>食品!$H$15</f>
         <v>0.72858049502855871</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>食品!$H$16</f>
         <v>0.78985507246376796</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>航運!$H$12</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>航運!$H$13</f>
         <v>0.59924242424242347</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>航運!$H$14</f>
         <v>0.67948717948717896</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f>航運!$H$15</f>
         <v>0.71990562403697922</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>航運!$H$16</f>
         <v>0.748571428571428</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>通訊!$H$12</f>
         <v>0.57446808510638303</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>通訊!$H$13</f>
         <v>0.67354101403875155</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>通訊!$H$14</f>
         <v>0.68669950738916197</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>通訊!$H$15</f>
         <v>0.73182309818531377</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>通訊!$H$16</f>
         <v>0.76543209876543195</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
@@ -12608,120 +14218,120 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>半導體!$D$12</f>
         <v>0.50847457627118597</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>半導體!$D$13</f>
         <v>0.53559322033898249</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>半導體!$D$14</f>
         <v>0.62648449210192503</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f>半導體!$D$15</f>
         <v>0.66949152542372792</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>半導體!$D$16</f>
         <v>0.75170068027210801</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>食品!$D$12</f>
         <v>0.53898305084745701</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f>食品!$D$13</f>
         <v>0.59745762711864381</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f>食品!$D$14</f>
         <v>0.64067796610169447</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f>食品!$D$15</f>
         <v>0.70847457627118604</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f>食品!$D$16</f>
         <v>0.77133105802047697</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>航運!$D$12</f>
         <v>0.50847457627118597</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>航運!$D$13</f>
         <v>0.58466575606620574</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f>航運!$D$14</f>
         <v>0.66124750747756655</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>航運!$D$15</f>
         <v>0.70310734463276769</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>航運!$D$16</f>
         <v>0.72203389830508402</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>通訊!$D$12</f>
         <v>0.55593220338982996</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>通訊!$D$13</f>
         <v>0.64915254237288122</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>通訊!$D$14</f>
         <v>0.69915026415447157</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>通訊!$D$15</f>
         <v>0.71407606448945793</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>通訊!$D$16</f>
         <v>0.72881355932203296</v>
       </c>
@@ -12736,5 +14346,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final report/precisionRate_rfr.xlsx
+++ b/final report/precisionRate_rfr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8F1F81-1378-6645-AC5A-67C56F629399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46974086-F7D5-4140-AB50-CFB8BC6C7A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_rfr" sheetId="1" r:id="rId1"/>
@@ -23,44 +23,94 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$G$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">半導體!$G$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">半導體!$G$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">食品!$I$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">航運!$I$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">半導體!$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -979,27 +1029,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1037,6 +1087,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F4CF080D-EDBA-1741-B33E-450E9621B86C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1049,6 +1100,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E0F09A5D-0C3C-3D40-8494-B0946697EE17}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1061,6 +1113,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{89BD0F1E-215A-E643-B991-F276CA2E9FCD}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1073,6 +1126,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{43693AE2-A7CB-9344-834E-9394CBAAF0C2}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1085,6 +1139,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{408463F6-5FBD-8945-87F9-F7891E6F40EE}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1116,27 +1171,649 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.38</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Regressor_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Regressor_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A02CB2B8-7B03-D247-AAF0-C611372C6D2E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{74AF8AB2-47B5-1E4B-BFC8-91ECEDFF55ED}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{34A6214B-22F9-C04B-86D1-4AC2AD9D114F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7E32B741-0E36-C146-8CE1-F97E075DB2EF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C7CCC7B7-9121-804C-864F-512E11836C7E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.46</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Regressor_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 食品</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6A7E3985-9FDA-834B-BC89-F3AC87167448}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{658CE1E7-E440-E146-9A95-B8E30AE28AF2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.47</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{80B18E32-C653-AD47-81BD-412951774884}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{83F24693-E1E3-6B48-8C3A-65FC26068ACE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{505EAF55-28B1-9D44-BB3F-BEB87A5F6A01}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.56</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.58</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.60</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.62</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.64</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Regressor_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 航運</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{172FCCFA-A902-044A-9A7A-4C1D869C6563}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EC027917-F8B2-A14B-9100-5FA4BDD394AA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.57</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{73131FC4-1D7E-EE42-8517-DDFC3D6D5A5D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D66FC4E5-57A4-DA46-B351-A4FA50F316A8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C1C493EE-73F1-EE4A-8D6B-E20F3AF3C377}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.76</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.78</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.80</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.82</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.84</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Regressor_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 通訊</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DBF41E30-54F8-C34F-8C5F-24B095D90E95}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F6232872-D241-9549-943E-11FC59B1E890}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.77</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EE946988-A919-FD46-A64B-D7C07C606F43}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EFF4DD6-FC17-154E-8C7F-C6534B012024}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A3538F2D-BA4A-9F4D-9660-98B8968F2EF4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.85</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.86</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.87</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.88</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.89</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1333,6 +2010,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1849,6 +2686,2066 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2447,6 +5344,338 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23356CAD-6546-3138-60AC-CDC0B7017CA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4679950" y="4743450"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A1970D-278B-4507-B0C5-3032FF18B77A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5187950" y="4197350"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA34BB41-2595-4DAF-CC8C-24D160DCBA5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5721350" y="4235450"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DF824F-F56E-5DF5-9204-7446389893DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5924550" y="4438650"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6831,7 +10060,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8499,6 +11728,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8507,7 +11737,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10175,6 +13405,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10183,7 +13414,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11851,6 +15082,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11858,8 +15090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13527,6 +16759,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13534,7 +16767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>

--- a/final report/precisionRate_rfr.xlsx
+++ b/final report/precisionRate_rfr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46974086-F7D5-4140-AB50-CFB8BC6C7A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF061A-AFE3-4B9B-A24D-E044D56E598C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_rfr" sheetId="1" r:id="rId1"/>
@@ -26,90 +26,55 @@
     <definedName name="_xlchart.v1.10" hidden="1">半導體!$G$2:$G$11</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">半導體!$H$1</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">食品!$G$2:$G$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">航運!$H$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">通訊!$H$2:$H$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">食品!$B$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">食品!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">食品!$C$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">食品!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$I$2:$I$11</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">食品!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">食品!$H$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">食品!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">食品!$I$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">食品!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">航運!$B$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">航運!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">航運!$C$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">航運!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">航運!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">航運!$H$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">航運!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">航運!$I$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">航運!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">通訊!$B$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">通訊!$G$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">通訊!$B$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">通訊!$G$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">半導體!$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -120,8 +85,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -308,7 +273,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -316,7 +281,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -324,7 +289,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -333,7 +298,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -342,7 +307,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -351,7 +316,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -359,7 +324,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -367,7 +332,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -375,7 +340,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -383,7 +348,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -392,7 +357,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -401,7 +366,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -409,7 +374,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -418,7 +383,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -426,7 +391,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -435,7 +400,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -444,7 +409,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -452,14 +417,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -467,7 +432,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -968,48 +933,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1022,6 +987,668 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Random Forest Regressor</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50847457627118597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53559322033898249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62648449210192503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66949152542372792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75170068027210801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.53898305084745701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59745762711864381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64067796610169447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70847457627118604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77133105802047697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50847457627118597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58466575606620574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66124750747756655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70310734463276769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72203389830508402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55593220338982996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64915254237288122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69915026415447157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71407606448945793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72881355932203296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391174768"/>
+        <c:axId val="390884608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391174768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390884608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390884608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391174768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1191,7 +1818,7 @@
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1281,6 +1908,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C7CCC7B7-9121-804C-864F-512E11836C7E}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1331,27 +1959,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.50</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1402,7 +2030,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6A7E3985-9FDA-834B-BC89-F3AC87167448}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1415,7 +2043,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{658CE1E7-E440-E146-9A95-B8E30AE28AF2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.47</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1428,7 +2056,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{80B18E32-C653-AD47-81BD-412951774884}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1441,7 +2069,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{83F24693-E1E3-6B48-8C3A-65FC26068ACE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1454,6 +2082,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{505EAF55-28B1-9D44-BB3F-BEB87A5F6A01}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1485,27 +2114,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.58</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1556,7 +2185,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{172FCCFA-A902-044A-9A7A-4C1D869C6563}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.23</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1569,7 +2198,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EC027917-F8B2-A14B-9100-5FA4BDD394AA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.57</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1582,7 +2211,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{73131FC4-1D7E-EE42-8517-DDFC3D6D5A5D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1595,7 +2224,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D66FC4E5-57A4-DA46-B351-A4FA50F316A8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1608,6 +2237,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C1C493EE-73F1-EE4A-8D6B-E20F3AF3C377}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1639,27 +2269,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.76</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.78</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.82</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.84</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1710,7 +2340,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DBF41E30-54F8-C34F-8C5F-24B095D90E95}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1723,7 +2353,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F6232872-D241-9549-943E-11FC59B1E890}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.77</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1736,7 +2366,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EE946988-A919-FD46-A64B-D7C07C606F43}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1749,7 +2379,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3EFF4DD6-FC17-154E-8C7F-C6534B012024}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1762,6 +2392,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A3538F2D-BA4A-9F4D-9660-98B8968F2EF4}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1773,11 +2404,11 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:valScaling max="0.85000000000000009" min="0.5"/>
         <cx:majorGridlines/>
         <cx:majorTickMarks type="out"/>
         <cx:tickLabels/>
@@ -1793,27 +2424,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.85</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.86</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.87</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.88</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.89</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2170,6 +2801,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -5256,6 +5927,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5309,8 +6496,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6711950" y="3028950"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6740525" y="3117850"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5329,9 +6516,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5392,8 +6579,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4679950" y="4743450"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4699000" y="4889500"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5412,9 +6599,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5475,8 +6662,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5187950" y="4197350"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5210175" y="4324350"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5495,9 +6682,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5558,8 +6745,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5721350" y="4235450"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5746750" y="4362450"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5578,9 +6765,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5641,8 +6828,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5924550" y="4438650"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5949950" y="4572000"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5661,9 +6848,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5724,8 +6911,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5689600" y="2032000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5715000" y="2095500"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5744,9 +6931,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5755,11 +6942,47 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>65225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA5D4CE-0B38-41E3-9D8F-FC130F05B2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6061,9 +7284,9 @@
       <selection activeCell="I2" activeCellId="4" sqref="B2:B41 C2:C41 G2:G41 H2:H41 I2:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6146,7 +7369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -6229,7 +7452,7 @@
         <v>4.6195216905568097</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -6312,7 +7535,7 @@
         <v>12.588755785886001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -6395,7 +7618,7 @@
         <v>4.9848978785850502</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -6478,7 +7701,7 @@
         <v>0.95621944278332205</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -6561,7 +7784,7 @@
         <v>9.0158352245724702E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -6644,7 +7867,7 @@
         <v>4.68753009032734</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -6727,7 +7950,7 @@
         <v>2.73122768921416</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -6810,7 +8033,7 @@
         <v>0.89541961875403497</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -6893,7 +8116,7 @@
         <v>12.5340748501318</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -6976,7 +8199,7 @@
         <v>540.54923721913894</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -7059,7 +8282,7 @@
         <v>513.11138242350899</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -7142,7 +8365,7 @@
         <v>0.17313215547107999</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -7225,7 +8448,7 @@
         <v>0.119390901083598</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -7308,7 +8531,7 @@
         <v>5.8267719023634999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -7391,7 +8614,7 @@
         <v>1.3282014826095401</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -7474,7 +8697,7 @@
         <v>0.73071297580575301</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -7557,7 +8780,7 @@
         <v>1802.37077556079</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -7640,7 +8863,7 @@
         <v>1.6937503162426</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -7723,7 +8946,7 @@
         <v>0.12381155975159799</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -7806,7 +9029,7 @@
         <v>3.6980670667687598</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -7889,7 +9112,7 @@
         <v>2.4208881013794801</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -7972,7 +9195,7 @@
         <v>0.241211458425585</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -8055,7 +9278,7 @@
         <v>0.72309542487912704</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -8138,7 +9361,7 @@
         <v>11.3534760030486</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -8221,7 +9444,7 @@
         <v>0.16422075734678601</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -8304,7 +9527,7 @@
         <v>0.60926821816894305</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -8387,7 +9610,7 @@
         <v>337.05575968129</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -8470,7 +9693,7 @@
         <v>12.932480095143999</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -8553,7 +9776,7 @@
         <v>7.7307064090112503</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -8636,7 +9859,7 @@
         <v>2434.37829462528</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -8719,7 +9942,7 @@
         <v>137.257391356798</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -8802,7 +10025,7 @@
         <v>1.0074592844708401</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -8885,7 +10108,7 @@
         <v>1.9692914175438501</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -8968,7 +10191,7 @@
         <v>1.2272190773215199</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -9051,7 +10274,7 @@
         <v>1.4346467269594001</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -9134,7 +10357,7 @@
         <v>18.936270244118699</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -9217,7 +10440,7 @@
         <v>125.792357750406</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -9300,7 +10523,7 @@
         <v>5474.0547414380399</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -9383,7 +10606,7 @@
         <v>0.72460294435552597</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -9466,7 +10689,7 @@
         <v>9.1333108314811895</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -9563,7 +10786,7 @@
         <v>2.80614125740241E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -9660,7 +10883,7 @@
         <v>0.25629170058761674</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -9757,7 +10980,7 @@
         <v>13.43653830259735</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -9854,7 +11077,7 @@
         <v>651.32569122269376</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -9951,7 +11174,7 @@
         <v>51631.602416357498</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -10063,9 +11286,9 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -10163,7 +11386,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rfr!A$31</f>
         <v>2330</v>
@@ -10261,7 +11484,7 @@
         <v>19496.0411513738</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rfr!A$12</f>
         <v>2454</v>
@@ -10359,7 +11582,7 @@
         <v>51631.602416357498</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rfr!A$28</f>
         <v>3034</v>
@@ -10457,7 +11680,7 @@
         <v>33004.387112481403</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rfr!A$18</f>
         <v>2379</v>
@@ -10555,7 +11778,7 @@
         <v>10614.545031055801</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rfr!A$25</f>
         <v>2408</v>
@@ -10653,7 +11876,7 @@
         <v>0.91310098397070605</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rfr!A$4</f>
         <v>2344</v>
@@ -10751,7 +11974,7 @@
         <v>10.6387959978168</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rfr!A$37</f>
         <v>2337</v>
@@ -10849,7 +12072,7 @@
         <v>0.70171206525058905</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rfr!A$35</f>
         <v>3035</v>
@@ -10947,7 +12170,7 @@
         <v>2744.3298817242298</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rfr!A$5</f>
         <v>2449</v>
@@ -11045,7 +12268,7 @@
         <v>20.8354615384198</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rfr!A$33</f>
         <v>2468</v>
@@ -11143,7 +12366,7 @@
         <v>4.4938192066761598E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -11240,7 +12463,7 @@
         <v>4.4938192066761598E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -11337,7 +12560,7 @@
         <v>3.3445247374322298</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -11434,7 +12657,7 @@
         <v>1382.582671631325</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -11531,7 +12754,7 @@
         <v>17275.6671212943</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -11628,7 +12851,7 @@
         <v>51631.602416357498</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -11740,9 +12963,9 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -11840,7 +13063,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rfr!A$16</f>
         <v>1216</v>
@@ -11938,7 +13161,7 @@
         <v>0.17656082449129601</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rfr!A$36</f>
         <v>1229</v>
@@ -12036,7 +13259,7 @@
         <v>39.921422875760797</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rfr!A$17</f>
         <v>1434</v>
@@ -12134,7 +13357,7 @@
         <v>4.2880161672596701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rfr!A$30</f>
         <v>1227</v>
@@ -12232,7 +13455,7 @@
         <v>0.165365595096893</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rfr!A$2</f>
         <v>1210</v>
@@ -12330,7 +13553,7 @@
         <v>47.271162719108901</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rfr!A$10</f>
         <v>1232</v>
@@ -12428,7 +13651,7 @@
         <v>632.34200103829301</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rfr!A$9</f>
         <v>1215</v>
@@ -12526,7 +13749,7 @@
         <v>16.186227498942099</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rfr!A$3</f>
         <v>1231</v>
@@ -12624,7 +13847,7 @@
         <v>145.83654827039001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rfr!A$23</f>
         <v>1218</v>
@@ -12722,7 +13945,7 @@
         <v>14.795196904409</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rfr!A$24</f>
         <v>1702</v>
@@ -12820,7 +14043,7 @@
         <v>0.15314661995808701</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -12917,7 +14140,7 @@
         <v>4.2880161672596701E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -13014,7 +14237,7 @@
         <v>0.16816440244549374</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -13111,7 +14334,7 @@
         <v>15.490712201675549</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -13208,7 +14431,7 @@
         <v>45.433727758271871</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -13305,7 +14528,7 @@
         <v>632.34200103829301</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -13417,9 +14640,9 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -13517,7 +14740,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rfr!A$6</f>
         <v>2603</v>
@@ -13615,7 +14838,7 @@
         <v>5686.3245748704803</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rfr!A$20</f>
         <v>2609</v>
@@ -13713,7 +14936,7 @@
         <v>5237.1198871398701</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rfr!A$34</f>
         <v>2615</v>
@@ -13811,7 +15034,7 @@
         <v>15131.0859864799</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rfr!A$40</f>
         <v>2618</v>
@@ -13909,7 +15132,7 @@
         <v>0.217704889166045</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rfr!A$27</f>
         <v>2610</v>
@@ -14007,7 +15230,7 @@
         <v>0.89293945278645204</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rfr!A$21</f>
         <v>2637</v>
@@ -14105,7 +15328,7 @@
         <v>708.27676177589603</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rfr!A$7</f>
         <v>2633</v>
@@ -14203,7 +15426,7 @@
         <v>3.6725171752462697E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rfr!A$26</f>
         <v>2459</v>
@@ -14301,7 +15524,7 @@
         <v>86.046524888929696</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rfr!A$13</f>
         <v>2607</v>
@@ -14399,7 +15622,7 @@
         <v>12.077879700785701</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rfr!A$14</f>
         <v>2634</v>
@@ -14497,7 +15720,7 @@
         <v>8.3626128179431602E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -14594,7 +15817,7 @@
         <v>3.6725171752462697E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -14691,7 +15914,7 @@
         <v>0.38651353007114675</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -14788,7 +16011,7 @@
         <v>49.062202294857698</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -14885,7 +16108,7 @@
         <v>4104.9091057988762</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -14982,7 +16205,7 @@
         <v>15131.0859864799</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -15090,13 +16313,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rfr!A$1</f>
         <v>StockName</v>
@@ -15194,7 +16417,7 @@
         <v>MSE</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rfr!A$32</f>
         <v>2412</v>
@@ -15292,7 +16515,7 @@
         <v>0.563917160483971</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rfr!A$41</f>
         <v>3045</v>
@@ -15390,7 +16613,7 @@
         <v>0.26915397106147398</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rfr!A$22</f>
         <v>4904</v>
@@ -15488,7 +16711,7 @@
         <v>0.106863263805724</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rfr!A$11</f>
         <v>2345</v>
@@ -15586,7 +16809,7 @@
         <v>1716.66563137907</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rfr!A$39</f>
         <v>2498</v>
@@ -15684,7 +16907,7 @@
         <v>0.90984218504971603</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rfr!A$8</f>
         <v>3596</v>
@@ -15782,7 +17005,7 @@
         <v>28.932679888541301</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rfr!A$15</f>
         <v>3682</v>
@@ -15880,7 +17103,7 @@
         <v>2.80614125740241E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rfr!A$29</f>
         <v>5388</v>
@@ -15978,7 +17201,7 @@
         <v>0.29230165355813298</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rfr!A$19</f>
         <v>2455</v>
@@ -16076,7 +17299,7 @@
         <v>38.709911601328002</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rfr!A$38</f>
         <v>2439</v>
@@ -16174,7 +17397,7 @@
         <v>2.8764610382749298</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -16271,7 +17494,7 @@
         <v>2.80614125740241E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -16368,7 +17591,7 @@
         <v>0.27494089168563873</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -16465,7 +17688,7 @@
         <v>0.73687967276684352</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -16562,7 +17785,7 @@
         <v>22.418625175974707</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -16659,7 +17882,7 @@
         <v>1716.66563137907</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -16767,13 +17990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -16802,7 +18025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>41</v>
@@ -16847,7 +18070,7 @@
         <v>9.1017564082199708E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -16899,7 +18122,7 @@
         <v>0.16636473177574498</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -16951,7 +18174,7 @@
         <v>0.30191035546478251</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -17003,7 +18226,7 @@
         <v>0.41332047331151578</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
@@ -17055,7 +18278,7 @@
         <v>0.54377935432991598</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
@@ -17067,7 +18290,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>41</v>
@@ -17085,7 +18308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -17110,7 +18333,7 @@
         <v>0.784810126582278</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -17135,7 +18358,7 @@
         <v>0.79245283018867896</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -17160,7 +18383,7 @@
         <v>0.80487804878048697</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -17185,7 +18408,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -17195,7 +18418,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>41</v>
@@ -17213,7 +18436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -17238,7 +18461,7 @@
         <v>0.75182481751824803</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -17263,7 +18486,7 @@
         <v>0.75483870967741895</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -17288,7 +18511,7 @@
         <v>0.71186440677966101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -17313,7 +18536,7 @@
         <v>0.74576271186440601</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -17323,7 +18546,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>41</v>
@@ -17341,7 +18564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -17366,7 +18589,7 @@
         <v>0.761290322580645</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -17391,7 +18614,7 @@
         <v>0.78985507246376796</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -17416,7 +18639,7 @@
         <v>0.748571428571428</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -17441,7 +18664,7 @@
         <v>0.76543209876543195</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>39</v>
       </c>
@@ -17451,7 +18674,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>41</v>
@@ -17469,7 +18692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -17494,7 +18717,7 @@
         <v>0.75170068027210801</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -17519,7 +18742,7 @@
         <v>0.77133105802047697</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -17544,7 +18767,7 @@
         <v>0.72203389830508402</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
